--- a/data/Dataset Shell.xlsx
+++ b/data/Dataset Shell.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\Dropbox (Brown)\UI 2017\static_tool_TO1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlangber\Dropbox (Brown)\UI 2017\static_tool_TO1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" xr2:uid="{459C6F56-5011-48EB-A20E-4F677956D0E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="109">
   <si>
     <t>Study Author</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Springs</t>
   </si>
   <si>
-    <t>mixed</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -162,12 +159,204 @@
   </si>
   <si>
     <t>Other issues</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Schmid</t>
+  </si>
+  <si>
+    <t>Trikalinos</t>
+  </si>
+  <si>
+    <t>Senturk</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Balk</t>
+  </si>
+  <si>
+    <t>Wallack</t>
+  </si>
+  <si>
+    <t>Quiroz</t>
+  </si>
+  <si>
+    <t>Dahabreh</t>
+  </si>
+  <si>
+    <t>Steele</t>
+  </si>
+  <si>
+    <t>Zullo</t>
+  </si>
+  <si>
+    <t>Langberg</t>
+  </si>
+  <si>
+    <t>Jap</t>
+  </si>
+  <si>
+    <t>Kimmel</t>
+  </si>
+  <si>
+    <t>Saeed</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Molino</t>
+  </si>
+  <si>
+    <t>Wiley</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Ades</t>
+  </si>
+  <si>
+    <t>Welton</t>
+  </si>
+  <si>
+    <t>Janson</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C1+T4</t>
+  </si>
+  <si>
+    <t>N4+T4</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>C7+H2</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>C+T</t>
+  </si>
+  <si>
+    <t>N+T</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C+H</t>
+  </si>
+  <si>
+    <t>C6+U6</t>
+  </si>
+  <si>
+    <t>C+U</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>TENS</t>
+  </si>
+  <si>
+    <t>botox</t>
+  </si>
+  <si>
+    <t>fesoterodine</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>MBSR</t>
+  </si>
+  <si>
+    <t>estrogen, oral</t>
+  </si>
+  <si>
+    <t>autologous fat</t>
+  </si>
+  <si>
+    <t>phenylpropanolamine</t>
+  </si>
+  <si>
+    <t>oxybutynin plus PFMT</t>
+  </si>
+  <si>
+    <t>TENS plus PFMT</t>
+  </si>
+  <si>
+    <t>duloxetine</t>
+  </si>
+  <si>
+    <t>phenylpropanolamine plus estrogen, oral</t>
+  </si>
+  <si>
+    <t>phynylpropanolamine</t>
+  </si>
+  <si>
+    <t>intravesical pressure release</t>
+  </si>
+  <si>
+    <t>flavoxate plus porcine collagen</t>
+  </si>
+  <si>
+    <t>dose1</t>
+  </si>
+  <si>
+    <t>dose2</t>
+  </si>
+  <si>
+    <t>satisfaction</t>
+  </si>
+  <si>
+    <t>improvement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,40 +713,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADEFE8A-FA7A-4194-85DF-C66D0D4929F0}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,73 +767,79 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -663,47 +859,47 @@
         <v>19</v>
       </c>
       <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>35</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>46</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>1.25</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.83</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>27</v>
-      </c>
       <c r="U2" t="s">
         <v>27</v>
       </c>
@@ -714,22 +910,28 @@
         <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s">
         <v>27</v>
       </c>
+      <c r="AC2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -745,74 +947,2056 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>85</v>
+      </c>
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="G3">
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3">
+        <v>1.85</v>
+      </c>
+      <c r="S3">
+        <v>0.63</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>16542878</v>
+      </c>
+      <c r="C4">
+        <v>1999</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4">
+        <v>1.52</v>
+      </c>
+      <c r="S4">
+        <v>0.42</v>
+      </c>
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>26484213</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>51</v>
+      </c>
+      <c r="K5">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5">
+        <v>1.34</v>
+      </c>
+      <c r="S5">
+        <v>0.64</v>
+      </c>
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>24578464</v>
+      </c>
+      <c r="C6">
+        <v>2001</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+      <c r="K6">
         <v>46</v>
       </c>
-      <c r="I3">
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>1.18</v>
+      </c>
+      <c r="S6">
+        <v>0.8</v>
+      </c>
+      <c r="T6" t="s">
+        <v>107</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>23156789</v>
+      </c>
+      <c r="C7">
+        <v>2002</v>
+      </c>
+      <c r="D7">
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7">
+        <v>1.64</v>
+      </c>
+      <c r="S7">
+        <v>0.45</v>
+      </c>
+      <c r="T7" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>21345612</v>
+      </c>
+      <c r="C8">
+        <v>2003</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>64</v>
+      </c>
+      <c r="K8">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8">
+        <v>1.78</v>
+      </c>
+      <c r="S8">
+        <v>0.31</v>
+      </c>
+      <c r="T8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>27945135</v>
+      </c>
+      <c r="C9">
+        <v>2004</v>
+      </c>
+      <c r="D9">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>93</v>
+      </c>
+      <c r="R9">
+        <v>1.63</v>
+      </c>
+      <c r="S9">
+        <v>0.43</v>
+      </c>
+      <c r="T9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>46212158</v>
+      </c>
+      <c r="C10">
+        <v>2005</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>61</v>
+      </c>
+      <c r="K10">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10">
+        <v>1.54</v>
+      </c>
+      <c r="S10">
+        <v>0.45</v>
+      </c>
+      <c r="T10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>64752131</v>
+      </c>
+      <c r="C11">
+        <v>2006</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>64</v>
+      </c>
+      <c r="K11">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>93</v>
+      </c>
+      <c r="R11">
+        <v>1.26</v>
+      </c>
+      <c r="S11">
+        <v>0.42</v>
+      </c>
+      <c r="T11" t="s">
+        <v>107</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>76541612</v>
+      </c>
+      <c r="C12">
+        <v>2007</v>
+      </c>
+      <c r="D12">
+        <v>56</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>51</v>
+      </c>
+      <c r="K12">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>1.45</v>
+      </c>
+      <c r="S12">
+        <v>0.64</v>
+      </c>
+      <c r="T12" t="s">
+        <v>107</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <v>94312154</v>
+      </c>
+      <c r="C13">
+        <v>2008</v>
+      </c>
+      <c r="D13">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13">
+        <v>1.64</v>
+      </c>
+      <c r="S13">
+        <v>0.47</v>
+      </c>
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>41215434</v>
+      </c>
+      <c r="C14">
+        <v>2009</v>
+      </c>
+      <c r="D14">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14">
+        <v>1.45</v>
+      </c>
+      <c r="S14">
+        <v>0.72</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>74246461</v>
+      </c>
+      <c r="C15">
+        <v>2010</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>64</v>
+      </c>
+      <c r="K15">
+        <v>64</v>
+      </c>
+      <c r="L15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15">
+        <v>1.32</v>
+      </c>
+      <c r="S15">
+        <v>0.64</v>
+      </c>
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16">
+        <v>76321542</v>
+      </c>
+      <c r="C16">
+        <v>2011</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>74</v>
+      </c>
+      <c r="L16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16">
+        <v>1.41</v>
+      </c>
+      <c r="S16">
+        <v>0.42</v>
+      </c>
+      <c r="T16" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17">
+        <v>24346455</v>
+      </c>
+      <c r="C17">
+        <v>2012</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>64</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" t="s">
         <v>85</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17">
+        <v>1.75</v>
+      </c>
+      <c r="S17">
+        <v>0.51</v>
+      </c>
+      <c r="T17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <v>43434343</v>
+      </c>
+      <c r="C18">
+        <v>2013</v>
+      </c>
+      <c r="D18">
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>55</v>
+      </c>
+      <c r="K18">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18">
+        <v>1.52</v>
+      </c>
+      <c r="S18">
+        <v>0.34</v>
+      </c>
+      <c r="T18" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>75421585</v>
+      </c>
+      <c r="C19">
+        <v>2014</v>
+      </c>
+      <c r="D19">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>64</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19">
+        <v>1.76</v>
+      </c>
+      <c r="S19">
+        <v>0.42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>108</v>
+      </c>
+      <c r="U19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>73121581</v>
+      </c>
+      <c r="C20">
+        <v>2015</v>
+      </c>
+      <c r="D20">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>64</v>
+      </c>
+      <c r="K20">
+        <v>51</v>
+      </c>
+      <c r="L20" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="S20">
+        <v>0.15</v>
+      </c>
+      <c r="T20" t="s">
+        <v>108</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>13472154</v>
+      </c>
+      <c r="C21">
+        <v>2016</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>49</v>
+      </c>
+      <c r="L21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21">
+        <v>1.64</v>
+      </c>
+      <c r="S21">
+        <v>0.34</v>
+      </c>
+      <c r="T21" t="s">
+        <v>108</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" t="s">
+        <v>34</v>
+      </c>
+      <c r="W21" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>72131815</v>
+      </c>
+      <c r="C22">
+        <v>2017</v>
+      </c>
+      <c r="D22">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>97</v>
+      </c>
+      <c r="K22">
+        <v>64</v>
+      </c>
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22">
+        <v>1.52</v>
+      </c>
+      <c r="S22">
+        <v>0.46</v>
+      </c>
+      <c r="T22" t="s">
+        <v>108</v>
+      </c>
+      <c r="U22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23">
+        <v>44213121</v>
+      </c>
+      <c r="C23">
+        <v>2018</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23">
+        <v>1.34</v>
+      </c>
+      <c r="S23">
+        <v>0.42</v>
+      </c>
+      <c r="T23" t="s">
+        <v>108</v>
+      </c>
+      <c r="U23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>12134212</v>
+      </c>
+      <c r="C24">
+        <v>2019</v>
+      </c>
+      <c r="D24">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>51</v>
+      </c>
+      <c r="K24">
+        <v>82</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>93</v>
+      </c>
+      <c r="R24">
+        <v>1.41</v>
+      </c>
+      <c r="S24">
+        <v>0.61</v>
+      </c>
+      <c r="T24" t="s">
+        <v>108</v>
+      </c>
+      <c r="U24" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>62121563</v>
+      </c>
+      <c r="C25">
+        <v>2020</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>45</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N25" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" t="s">
         <v>33</v>
       </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3">
-        <v>1.85</v>
-      </c>
-      <c r="Q3">
-        <v>0.63</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>35</v>
+      <c r="R25">
+        <v>1.58</v>
+      </c>
+      <c r="S25">
+        <v>0.4</v>
+      </c>
+      <c r="T25" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W25" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
